--- a/biology/Mycologie/Cercospora/Cercospora.xlsx
+++ b/biology/Mycologie/Cercospora/Cercospora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cercospora (le nom Cercospora vient du fait que les conidies de ces champignons, formé de 4 ou 5 logettes, présente un sommet effilé en une queue, qui se dit κέρκος, kérkos en grec ancien) est un genre de champignons ascomycètes.  Diverses espèces de ce genre sont les agents de maladies des plantes, se manifestant  souvent sous forme de taches foliaires. Bien que ce genre soit relativement bien étudié, de nombreuses espèces ne sont pas encore décrites.
 </t>
@@ -513,7 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Selon NCBI  (14 mars 2011)[1]
+          <t>Selon NCBI  (14 mars 2011)[1]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cercospora acaciae-mangii
 Cercospora achyranthis
 Cercospora agavicola
@@ -575,8 +593,43 @@
 Cercospora sp. Po89
 Cercospora sp. Vega420
 Cercospora sp. YN4-151205
-Selon ITIS      (14 mars 2011)[2]
-Dendryphiella arenaria Nicot, 1958
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cercospora</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cercospora</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (14 mars 2011)[2]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dendryphiella arenaria Nicot, 1958
 Dendryphiella salina (Sutherland) Pugh &amp; Nicot
 Dendryphiella vinosa (Berk. &amp; Curt.) Reisinger</t>
         </is>
